--- a/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
+++ b/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B9E44-35A8-4FDE-BD3D-2E431E9228AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5EA09-558A-4F8B-9582-21B13F2BF925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
@@ -37,41 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Lumber Export (Mm3)</t>
-  </si>
-  <si>
-    <t>Log Export (Mm3)</t>
-  </si>
-  <si>
-    <t>Panel Export (Mm3)</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
-    <t>Pulp Export (Mm3)</t>
-  </si>
-  <si>
-    <t>Pellet Export (Mm3)</t>
-  </si>
-  <si>
-    <t>Log Domestic (Mm3)</t>
-  </si>
-  <si>
-    <t>Panel Domestic (Mm3)</t>
-  </si>
-  <si>
-    <t>Pulp Domestic (Mm3)</t>
-  </si>
-  <si>
-    <t>Pellet Domestic (Mm3)</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -87,24 +60,6 @@
     <t>Area regen (Mha)</t>
   </si>
   <si>
-    <t>Lumber Export (M ODT)</t>
-  </si>
-  <si>
-    <t>Log Export (M ODT)</t>
-  </si>
-  <si>
-    <t>Panel Export (M ODT)</t>
-  </si>
-  <si>
-    <t>Pulp Export (M ODT)</t>
-  </si>
-  <si>
-    <t>Pellet Export (M ODT)</t>
-  </si>
-  <si>
-    <t>Total Export (M ODT)</t>
-  </si>
-  <si>
     <t>Waste Sawlog (Mm3)</t>
   </si>
   <si>
@@ -117,27 +72,12 @@
     <t>Waste Total (Mm3)</t>
   </si>
   <si>
-    <t>Lumber Domestic (Mm3)</t>
-  </si>
-  <si>
     <t>Derived</t>
   </si>
   <si>
     <t>Waste rate HBS (%)</t>
   </si>
   <si>
-    <t>Volume HBS Total (Mm3/yr)</t>
-  </si>
-  <si>
-    <t>Volume HBS Hog+Chips (Mm3/yr)</t>
-  </si>
-  <si>
-    <t>Volume HBS Waste (Mm3/yr)</t>
-  </si>
-  <si>
-    <t>Volume HBS Total W/O Waste (Mm3/yr)</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -153,36 +93,9 @@
     <t>See Harvest Area script; similar but not exact to NFD or CCDB</t>
   </si>
   <si>
-    <t>Volume Density Pellet Total (m3/ha)</t>
-  </si>
-  <si>
-    <t>Volume Density HBS Total W/O Waste (m3/ha)</t>
-  </si>
-  <si>
-    <t>Volume Density HBS Total With Waste (m3/ha)</t>
-  </si>
-  <si>
-    <t>Volume Density Pellet Total (%)</t>
-  </si>
-  <si>
-    <t>Lumber Total (Mm3)</t>
-  </si>
-  <si>
-    <t>Panel Total (Mm3)</t>
-  </si>
-  <si>
-    <t>Pulp Total (Mm3)</t>
-  </si>
-  <si>
-    <t>Pellet Total (Mm3)</t>
-  </si>
-  <si>
     <t>Export summary indicates that 87% of lumber is exported</t>
   </si>
   <si>
-    <t>Volume Total From Sum Of Products (Mm3)</t>
-  </si>
-  <si>
     <t>BC Mill Survey Report</t>
   </si>
   <si>
@@ -201,33 +114,9 @@
     <t>Pellet Feedstock From Harvest Residuals (%)</t>
   </si>
   <si>
-    <t>Volume HBS Sawlog (Mm3/yr)</t>
-  </si>
-  <si>
-    <t>Volume HBS Firmwood Reject (Mm3/yr)</t>
-  </si>
-  <si>
-    <t>Volume HBS Sawlog (%)</t>
-  </si>
-  <si>
-    <t>Volume HBS Pulplog (%)</t>
-  </si>
-  <si>
-    <t>Volume HBS Firmwood Reject (%)</t>
-  </si>
-  <si>
-    <t>Volume HBS Pulplog (Mm3/yr)</t>
-  </si>
-  <si>
     <t>Volume HBS Waste (%)</t>
   </si>
   <si>
-    <t>Volume HBS Pulplog+Firmwood Reject (%)</t>
-  </si>
-  <si>
-    <t>Log Export (%)</t>
-  </si>
-  <si>
     <t>Forest to Sawmill (%)</t>
   </si>
   <si>
@@ -238,6 +127,408 @@
   </si>
   <si>
     <t>Forest Non-sawlog to Chipper (%)</t>
+  </si>
+  <si>
+    <t>Production Petroleum US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Natural gas US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Natural gas CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Natural gas NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Coal US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Coal CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Coal NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Nuclear US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Nuclear CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Nuclear NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Wind US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Wind CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Wind NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Hydro US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Hydro CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Hydro NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Biofuels and Waste US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Biofuels and Waste CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Biofuels and Waste NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Natural gas US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Natural gas CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Natural gas NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Coal US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Coal CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Coal NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Nuclear US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Nuclear CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Nuclear NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Wind US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Wind CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Wind NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Hydro US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Hydro CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Hydro NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Biofuels and Waste US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Biofuels and Waste CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Biofuels and Waste NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Electricity US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Electricity CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Electricity NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Natural gas US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Natural gas CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Natural gas NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Coal US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Coal CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Coal NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Nuclear US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Nuclear CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Nuclear NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Wind US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Wind CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Wind NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Hydro US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Hydro CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Hydro NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Biofuels and Waste US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Biofuels and Waste CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Biofuels and Waste NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Electricity US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Electricity CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Electricity NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Natural gas US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Natural gas CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Natural gas NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Coal US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Coal CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Coal NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Nuclear US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Nuclear CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Nuclear NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Wind US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Wind CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Wind NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Hydro US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Hydro CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Hydro NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Biofuels and Waste US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Biofuels and Waste CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Biofuels and Waste NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Heat US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Heat CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Heat NA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Total (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Total W/O Waste (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Waste (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Hog+Chips (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Sawlog (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Pulplog (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Firmwood Reject (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Sawlog (%)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Pulplog (%)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Firmwood Reject (%)</t>
+  </si>
+  <si>
+    <t>Production Volume HBS Pulplog+Firmwood Reject (%)</t>
+  </si>
+  <si>
+    <t>Production Lumber Export (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Log Export (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Panel Export (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pulp Export (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pellet Export (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Lumber Domestic (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Log Domestic (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Panel Domestic (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pulp Domestic (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pellet Domestic (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Lumber Total (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Panel Total (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pulp Total (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Pellet Total (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume Total From Sum Of Products (Mm3/yr)</t>
+  </si>
+  <si>
+    <t>Production Log Export (%)</t>
+  </si>
+  <si>
+    <t>Production Total Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Pellet Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Pulp Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Lumber Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Log Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Panel Export (M ODT/yr)</t>
+  </si>
+  <si>
+    <t>Production Volume Density HBS Total W/O Waste (m3/ha)</t>
+  </si>
+  <si>
+    <t>Production Volume Density HBS Total With Waste (m3/ha)</t>
+  </si>
+  <si>
+    <t>Production Volume Density Pellet Total (m3/ha)</t>
+  </si>
+  <si>
+    <t>Production Volume Density Pellet Total (%)</t>
+  </si>
+  <si>
+    <t>Source 2018 energy stats: https://www.iea.org/data-and-statistics/data-tools/energy-statistics-data-browser?country=CANADA&amp;energy=Balances&amp;year=2018</t>
   </si>
 </sst>
 </file>
@@ -309,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -363,6 +654,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3653,6 +3945,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>5.5</a:t>
           </a:fld>
           <a:r>
@@ -3814,6 +4107,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>39.5</a:t>
           </a:fld>
           <a:r>
@@ -4265,6 +4559,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>6.9</a:t>
           </a:fld>
           <a:r>
@@ -4785,6 +5080,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>36.0</a:t>
           </a:fld>
           <a:r>
@@ -9208,6 +9504,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>82.7</a:t>
           </a:fld>
           <a:r>
@@ -9536,13 +9833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B68DB-5605-4152-9FD3-1C1553CFC20E}">
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:ET24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV17" sqref="AV17"/>
+      <selection pane="bottomRight" activeCell="BI1" sqref="BI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9565,184 +9862,463 @@
     <col min="45" max="52" width="8.88671875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11.6640625" style="1" customWidth="1"/>
-    <col min="55" max="59" width="8.88671875" style="1"/>
+    <col min="55" max="59" width="10.44140625" style="1" customWidth="1"/>
+    <col min="60" max="164" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:150" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="BF1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="CB1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="CG1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CH1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="8" t="s">
+      <c r="CI1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" s="6" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="CK1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="CL1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="CM1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
+      <c r="CN1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -9839,7 +10415,7 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -9936,7 +10512,7 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -10112,7 +10688,7 @@
       <c r="BC4" s="14"/>
       <c r="BD4" s="14"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -10290,7 +10866,7 @@
       <c r="BC5" s="14"/>
       <c r="BD5" s="14"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -10468,7 +11044,7 @@
       <c r="BC6" s="14"/>
       <c r="BD6" s="14"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -10646,7 +11222,7 @@
       <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -10824,7 +11400,7 @@
       <c r="BC8" s="14"/>
       <c r="BD8" s="14"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -11002,7 +11578,7 @@
       <c r="BC9" s="14"/>
       <c r="BD9" s="14"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -11180,7 +11756,7 @@
       <c r="BC10" s="14"/>
       <c r="BD10" s="14"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -11358,7 +11934,7 @@
       <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -11546,7 +12122,7 @@
       <c r="BC12" s="14"/>
       <c r="BD12" s="14"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -11725,7 +12301,7 @@
       <c r="BC13" s="14"/>
       <c r="BD13" s="14"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -11913,7 +12489,7 @@
       <c r="BC14" s="14"/>
       <c r="BD14" s="14"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -12098,10 +12674,189 @@
       <c r="AZ15" s="14"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
+      <c r="BC15" s="19">
+        <f>28686634/1000</f>
+        <v>28686.633999999998</v>
+      </c>
+      <c r="BD15" s="19">
+        <f>11187524/1000</f>
+        <v>11187.523999999999</v>
+      </c>
+      <c r="BE15" s="19"/>
+      <c r="BF15" s="19">
+        <f>29489845/1000</f>
+        <v>29489.845000000001</v>
+      </c>
+      <c r="BG15" s="19">
+        <f>6910494/1000</f>
+        <v>6910.4939999999997</v>
+      </c>
+      <c r="BH15" s="19"/>
+      <c r="BI15" s="19">
+        <f>15448717/1000</f>
+        <v>15448.717000000001</v>
+      </c>
+      <c r="BJ15" s="19">
+        <f>1220266/1000</f>
+        <v>1220.2660000000001</v>
+      </c>
+      <c r="BK15" s="19"/>
+      <c r="BL15" s="19"/>
+      <c r="BM15" s="19">
+        <f>1098884/1000</f>
+        <v>1098.884</v>
+      </c>
+      <c r="BN15" s="19"/>
+      <c r="BO15" s="19"/>
+      <c r="BP15" s="19">
+        <f>135006/1000</f>
+        <v>135.006</v>
+      </c>
+      <c r="BQ15" s="19"/>
+      <c r="BR15" s="19"/>
+      <c r="BS15" s="19">
+        <f>1389024/1000</f>
+        <v>1389.0239999999999</v>
+      </c>
+      <c r="BT15" s="19"/>
+      <c r="BU15" s="19"/>
+      <c r="BV15" s="19">
+        <f>573230/1000</f>
+        <v>573.23</v>
+      </c>
+      <c r="BW15" s="19"/>
+      <c r="BX15" s="19"/>
+      <c r="BY15" s="19">
+        <f>(1826699+565516)/1000</f>
+        <v>2392.2150000000001</v>
+      </c>
+      <c r="BZ15" s="19"/>
+      <c r="CA15" s="19"/>
+      <c r="CB15" s="19">
+        <f>818032/1000</f>
+        <v>818.03200000000004</v>
+      </c>
+      <c r="CC15" s="19"/>
+      <c r="CD15" s="19"/>
+      <c r="CE15" s="19">
+        <f>229533/1000</f>
+        <v>229.53299999999999</v>
+      </c>
+      <c r="CF15" s="19"/>
+      <c r="CG15" s="19"/>
+      <c r="CH15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="19"/>
+      <c r="CJ15" s="19"/>
+      <c r="CK15" s="19"/>
+      <c r="CL15" s="19"/>
+      <c r="CM15" s="19"/>
+      <c r="CN15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="19"/>
+      <c r="CP15" s="19"/>
+      <c r="CQ15" s="19">
+        <f>55557/1000</f>
+        <v>55.557000000000002</v>
+      </c>
+      <c r="CR15" s="19"/>
+      <c r="CS15" s="19"/>
+      <c r="CT15" s="19">
+        <f>47502/1000</f>
+        <v>47.502000000000002</v>
+      </c>
+      <c r="CU15" s="19"/>
+      <c r="CV15" s="19"/>
+      <c r="CW15" s="19">
+        <f>(-8212260-928790)/1000</f>
+        <v>-9141.0499999999993</v>
+      </c>
+      <c r="CX15" s="19"/>
+      <c r="CY15" s="19"/>
+      <c r="CZ15" s="19">
+        <f>-2815765/1000</f>
+        <v>-2815.7649999999999</v>
+      </c>
+      <c r="DA15" s="19"/>
+      <c r="DB15" s="19"/>
+      <c r="DC15" s="19">
+        <f>-801916/1000</f>
+        <v>-801.91600000000005</v>
+      </c>
+      <c r="DD15" s="19"/>
+      <c r="DE15" s="19"/>
+      <c r="DF15" s="19"/>
+      <c r="DG15" s="19"/>
+      <c r="DH15" s="19"/>
+      <c r="DI15" s="19"/>
+      <c r="DJ15" s="19"/>
+      <c r="DK15" s="19"/>
+      <c r="DL15" s="19"/>
+      <c r="DM15" s="19"/>
+      <c r="DN15" s="19"/>
+      <c r="DO15" s="19">
+        <f>-58476/1000</f>
+        <v>-58.475999999999999</v>
+      </c>
+      <c r="DP15" s="19"/>
+      <c r="DQ15" s="19"/>
+      <c r="DR15" s="19">
+        <f>-221044/1000</f>
+        <v>-221.04400000000001</v>
+      </c>
+      <c r="DS15" s="19"/>
+      <c r="DT15" s="19"/>
+      <c r="DU15" s="19">
+        <f>3968290/1000</f>
+        <v>3968.29</v>
+      </c>
+      <c r="DV15" s="19"/>
+      <c r="DW15" s="19"/>
+      <c r="DX15" s="19">
+        <f>2215958/1000</f>
+        <v>2215.9580000000001</v>
+      </c>
+      <c r="DY15" s="19"/>
+      <c r="DZ15" s="19"/>
+      <c r="EA15" s="19">
+        <f>113104/1000</f>
+        <v>113.104</v>
+      </c>
+      <c r="EB15" s="19"/>
+      <c r="EC15" s="19"/>
+      <c r="ED15" s="19"/>
+      <c r="EE15" s="19"/>
+      <c r="EF15" s="19"/>
+      <c r="EG15" s="19">
+        <f>1810/1000</f>
+        <v>1.81</v>
+      </c>
+      <c r="EH15" s="19"/>
+      <c r="EI15" s="19"/>
+      <c r="EJ15" s="19"/>
+      <c r="EK15" s="19"/>
+      <c r="EL15" s="19"/>
+      <c r="EM15" s="19">
+        <f>457842/1000</f>
+        <v>457.84199999999998</v>
+      </c>
+      <c r="EN15" s="19"/>
+      <c r="EO15" s="19"/>
+      <c r="EP15" s="19">
+        <f>1887732/1000</f>
+        <v>1887.732</v>
+      </c>
+      <c r="EQ15" s="19"/>
+      <c r="ER15" s="19"/>
+      <c r="ES15" s="19">
+        <f>27983/1000</f>
+        <v>27.983000000000001</v>
+      </c>
+      <c r="ET15" s="19"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -12289,7 +13044,7 @@
       <c r="BC16" s="14"/>
       <c r="BD16" s="14"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -12489,7 +13244,7 @@
       <c r="BC17" s="14"/>
       <c r="BD17" s="14"/>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -12662,9 +13417,9 @@
       <c r="BC18" s="14"/>
       <c r="BD18" s="14"/>
     </row>
-    <row r="19" spans="1:59" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:150" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="11">
         <f>AVERAGE(B2:B18)</f>
@@ -12878,184 +13633,470 @@
       <c r="BF19" s="13"/>
       <c r="BG19" s="13"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
       <c r="L20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CF20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CJ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CL20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CN20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CR20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CU20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CV20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CW20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CX20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DC20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DE20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DG20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DH20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DK20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DM20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DN20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DP20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DT20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ED20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EE20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EF20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EH20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EJ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EK20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EL20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EM20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EO20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EP20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EQ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ER20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ES20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ET20" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:150" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" t="s">
-        <v>13</v>
-      </c>
-      <c r="U20" t="s">
-        <v>13</v>
-      </c>
-      <c r="V20" t="s">
-        <v>13</v>
-      </c>
-      <c r="W20" t="s">
-        <v>13</v>
-      </c>
-      <c r="X20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="BA20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AR21" s="14"/>
       <c r="AS21" s="15"/>
@@ -13071,7 +14112,7 @@
       <c r="BC21" s="14"/>
       <c r="BD21" s="14"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.3">
       <c r="AR22" s="14"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -13086,7 +14127,7 @@
       <c r="BC22" s="14"/>
       <c r="BD22" s="14"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:150" x14ac:dyDescent="0.3">
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
@@ -13101,7 +14142,7 @@
       <c r="BC23" s="14"/>
       <c r="BD23" s="14"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.3">
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>

--- a/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
+++ b/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5EA09-558A-4F8B-9582-21B13F2BF925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5777934-B23C-4A83-88A6-C8EB775E9333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +587,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -600,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -655,6 +661,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3476,13 +3483,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>333686</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>18680</xdr:rowOff>
+      <xdr:rowOff>28205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>510947</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>174894</xdr:rowOff>
+      <xdr:rowOff>184419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3497,8 +3504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13958246" y="2944760"/>
-          <a:ext cx="1396461" cy="339094"/>
+          <a:off x="9010961" y="2885705"/>
+          <a:ext cx="1396461" cy="346714"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8064,8 +8071,16 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?%</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>?% of harvest</a:t>
+            <a:t> of harvest</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8813,8 +8828,16 @@
         </a:lstStyle>
         <a:p>
           <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?%</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>?% of harvest</a:t>
+            <a:t> of harvest</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8956,8 +8979,16 @@
         </a:lstStyle>
         <a:p>
           <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?%</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>?% of harvest</a:t>
+            <a:t> of harvest</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9157,7 +9188,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>576021</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>24639</xdr:rowOff>
+      <xdr:rowOff>12349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9172,8 +9203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5144665" y="5798069"/>
-          <a:ext cx="1131116" cy="261610"/>
+          <a:off x="197380" y="5843789"/>
+          <a:ext cx="1131116" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9282,8 +9313,16 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?%</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>?% of harvest</a:t>
+            <a:t> of harvest</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9825,7 +9864,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9836,37 +9875,35 @@
   <dimension ref="A1:ET24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI1" sqref="BI1"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="15" width="11.21875" customWidth="1"/>
-    <col min="16" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="1" customWidth="1"/>
-    <col min="20" max="29" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="1" customWidth="1"/>
+    <col min="20" max="29" width="9.7109375" customWidth="1"/>
     <col min="30" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" customWidth="1"/>
-    <col min="33" max="37" width="11.21875" customWidth="1"/>
-    <col min="38" max="38" width="9.88671875" style="1" customWidth="1"/>
-    <col min="39" max="41" width="11.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="11.109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.6640625" customWidth="1"/>
-    <col min="44" max="44" width="11.33203125" style="1" customWidth="1"/>
-    <col min="45" max="52" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="9.28515625" customWidth="1"/>
+    <col min="33" max="37" width="11.28515625" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="1" customWidth="1"/>
+    <col min="39" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="1" customWidth="1"/>
+    <col min="45" max="52" width="8.85546875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" customWidth="1"/>
-    <col min="55" max="59" width="10.44140625" style="1" customWidth="1"/>
-    <col min="60" max="164" width="10.44140625" customWidth="1"/>
+    <col min="54" max="54" width="11.7109375" style="1" customWidth="1"/>
+    <col min="55" max="59" width="10.42578125" style="1" customWidth="1"/>
+    <col min="60" max="164" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:150" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10318,7 +10355,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -10415,7 +10452,7 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -10512,7 +10549,7 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
     </row>
-    <row r="4" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -10688,7 +10725,7 @@
       <c r="BC4" s="14"/>
       <c r="BD4" s="14"/>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -10866,7 +10903,7 @@
       <c r="BC5" s="14"/>
       <c r="BD5" s="14"/>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -11044,7 +11081,7 @@
       <c r="BC6" s="14"/>
       <c r="BD6" s="14"/>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -11222,7 +11259,7 @@
       <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
     </row>
-    <row r="8" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -11400,7 +11437,7 @@
       <c r="BC8" s="14"/>
       <c r="BD8" s="14"/>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -11578,7 +11615,7 @@
       <c r="BC9" s="14"/>
       <c r="BD9" s="14"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -11756,7 +11793,7 @@
       <c r="BC10" s="14"/>
       <c r="BD10" s="14"/>
     </row>
-    <row r="11" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -11934,7 +11971,7 @@
       <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
     </row>
-    <row r="12" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -12122,7 +12159,7 @@
       <c r="BC12" s="14"/>
       <c r="BD12" s="14"/>
     </row>
-    <row r="13" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -12301,7 +12338,7 @@
       <c r="BC13" s="14"/>
       <c r="BD13" s="14"/>
     </row>
-    <row r="14" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -12489,7 +12526,7 @@
       <c r="BC14" s="14"/>
       <c r="BD14" s="14"/>
     </row>
-    <row r="15" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -12856,7 +12893,7 @@
       </c>
       <c r="ET15" s="19"/>
     </row>
-    <row r="16" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -13044,7 +13081,7 @@
       <c r="BC16" s="14"/>
       <c r="BD16" s="14"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -13244,7 +13281,7 @@
       <c r="BC17" s="14"/>
       <c r="BD17" s="14"/>
     </row>
-    <row r="18" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -13417,7 +13454,7 @@
       <c r="BC18" s="14"/>
       <c r="BD18" s="14"/>
     </row>
-    <row r="19" spans="1:150" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:150" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -13633,7 +13670,7 @@
       <c r="BF19" s="13"/>
       <c r="BG19" s="13"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -14085,7 +14122,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -14112,7 +14149,7 @@
       <c r="BC21" s="14"/>
       <c r="BD21" s="14"/>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:150" x14ac:dyDescent="0.25">
       <c r="AR22" s="14"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -14127,7 +14164,7 @@
       <c r="BC22" s="14"/>
       <c r="BD22" s="14"/>
     </row>
-    <row r="23" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:150" x14ac:dyDescent="0.25">
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
@@ -14142,7 +14179,7 @@
       <c r="BC23" s="14"/>
       <c r="BD23" s="14"/>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:150" x14ac:dyDescent="0.25">
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
@@ -14165,17 +14202,869 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80858736-3FA3-492A-AAA6-55F65EB4CDF9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
+++ b/cbrunner/Parameters/BC Forest Sector Workbook.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ED350A-91DE-4E64-A62E-158A7D320DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1B2C3-26E1-4819-B746-36422E2E5579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="176">
   <si>
     <t>Year</t>
   </si>
@@ -528,6 +531,42 @@
   </si>
   <si>
     <t>Source 2018 energy stats: https://www.iea.org/data-and-statistics/data-tools/energy-statistics-data-browser?country=CANADA&amp;energy=Balances&amp;year=2018</t>
+  </si>
+  <si>
+    <t>Production Natural Gas BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Natural Gas BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Natural Gas BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Natural Gas BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>From AB to SE BC (TransCanada BC System)</t>
+  </si>
+  <si>
+    <t>https://www2.gov.bc.ca/gov/content/industry/natural-gas-oil/statistics; Wellhead production</t>
+  </si>
+  <si>
+    <t>https://www2.gov.bc.ca/gov/content/industry/natural-gas-oil/statistics; Total Field and Plant Disposition + BC Consumption</t>
+  </si>
+  <si>
+    <t>https://www2.gov.bc.ca/gov/content/industry/natural-gas-oil/statistics; Aliance + NGTL + Spectra</t>
+  </si>
+  <si>
+    <t>Production Natural Gas BC (1000m3/yr)</t>
+  </si>
+  <si>
+    <t>Import Natural Gas BC (1000m3/yr)</t>
+  </si>
+  <si>
+    <t>Export Natural Gas BC (1000m3/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Natural Gas BC (1000m3/yr)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +577,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +595,27 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,11 +655,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -654,8 +724,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,6 +764,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Literature Review"/>
+      <sheetName val="Combustion Workbook"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="134">
+          <cell r="B134">
+            <v>3.73E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,13 +1089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B68DB-5605-4152-9FD3-1C1553CFC20E}">
-  <dimension ref="A1:ET24"/>
+  <dimension ref="A1:FB24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,12 +1115,12 @@
     <col min="44" max="44" width="11.33203125" style="1" customWidth="1"/>
     <col min="45" max="52" width="8.88671875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" style="1" customWidth="1"/>
-    <col min="55" max="59" width="10.44140625" style="1" customWidth="1"/>
-    <col min="60" max="164" width="10.44140625" customWidth="1"/>
+    <col min="54" max="62" width="11.6640625" style="1" customWidth="1"/>
+    <col min="63" max="67" width="10.44140625" style="1" customWidth="1"/>
+    <col min="68" max="172" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:158" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1163,295 +1284,319 @@
         <v>24</v>
       </c>
       <c r="BC1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -1547,8 +1692,16 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -1644,8 +1797,16 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
     </row>
-    <row r="4" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -1818,10 +1979,18 @@
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -1996,10 +2165,18 @@
       <c r="AZ5" s="14"/>
       <c r="BA5" s="14"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -2174,10 +2351,18 @@
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
       <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="14"/>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -2352,10 +2537,18 @@
       <c r="AZ7" s="14"/>
       <c r="BA7" s="14"/>
       <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
+      <c r="BC7" s="24"/>
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BF7" s="24"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
     </row>
-    <row r="8" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -2530,10 +2723,18 @@
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
       <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
+      <c r="BC8" s="24"/>
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="24"/>
+      <c r="BF8" s="24"/>
+      <c r="BG8" s="25"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
     </row>
-    <row r="9" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -2708,10 +2909,18 @@
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -2886,10 +3095,18 @@
       <c r="AZ10" s="14"/>
       <c r="BA10" s="14"/>
       <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
     </row>
-    <row r="11" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -3064,10 +3281,18 @@
       <c r="AZ11" s="14"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
+      <c r="BC11" s="24"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="24"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
     </row>
-    <row r="12" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -3252,10 +3477,18 @@
       <c r="AZ12" s="14"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
     </row>
-    <row r="13" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -3431,10 +3664,18 @@
       <c r="AZ13" s="14"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
     </row>
-    <row r="14" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -3619,10 +3860,18 @@
       <c r="AZ14" s="14"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
+      <c r="BC14" s="24"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="24"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
     </row>
-    <row r="15" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -3807,189 +4056,217 @@
       <c r="AZ15" s="14"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="19">
+      <c r="BC15" s="24">
+        <v>58853568.299999997</v>
+      </c>
+      <c r="BD15" s="24">
+        <v>3136365.1964609982</v>
+      </c>
+      <c r="BE15" s="24">
+        <v>50315758.892777875</v>
+      </c>
+      <c r="BF15" s="24">
+        <v>12121402.403683126</v>
+      </c>
+      <c r="BG15" s="25">
+        <f>BC15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2195.2380975900001</v>
+      </c>
+      <c r="BH15" s="25">
+        <f>BD15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>116.98642182799523</v>
+      </c>
+      <c r="BI15" s="25">
+        <f>BE15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>1876.777806700615</v>
+      </c>
+      <c r="BJ15" s="25">
+        <f>BF15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>452.12830965738067</v>
+      </c>
+      <c r="BK15" s="19">
         <f>28686634/1000</f>
         <v>28686.633999999998</v>
       </c>
-      <c r="BD15" s="19">
+      <c r="BL15" s="19">
         <f>11187524/1000</f>
         <v>11187.523999999999</v>
       </c>
-      <c r="BE15" s="19"/>
-      <c r="BF15" s="19">
+      <c r="BM15" s="19"/>
+      <c r="BN15" s="19">
         <f>29489845/1000</f>
         <v>29489.845000000001</v>
       </c>
-      <c r="BG15" s="19">
+      <c r="BO15" s="19">
         <f>6910494/1000</f>
         <v>6910.4939999999997</v>
       </c>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="19">
+      <c r="BP15" s="19"/>
+      <c r="BQ15" s="19">
         <f>15448717/1000</f>
         <v>15448.717000000001</v>
       </c>
-      <c r="BJ15" s="19">
+      <c r="BR15" s="19">
         <f>1220266/1000</f>
         <v>1220.2660000000001</v>
       </c>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19">
+      <c r="BS15" s="19"/>
+      <c r="BT15" s="19"/>
+      <c r="BU15" s="19">
         <f>1098884/1000</f>
         <v>1098.884</v>
       </c>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="19"/>
-      <c r="BP15" s="19">
+      <c r="BV15" s="19"/>
+      <c r="BW15" s="19"/>
+      <c r="BX15" s="19">
         <f>135006/1000</f>
         <v>135.006</v>
       </c>
-      <c r="BQ15" s="19"/>
-      <c r="BR15" s="19"/>
-      <c r="BS15" s="19">
+      <c r="BY15" s="19"/>
+      <c r="BZ15" s="19"/>
+      <c r="CA15" s="19">
         <f>1389024/1000</f>
         <v>1389.0239999999999</v>
       </c>
-      <c r="BT15" s="19"/>
-      <c r="BU15" s="19"/>
-      <c r="BV15" s="19">
+      <c r="CB15" s="19"/>
+      <c r="CC15" s="19"/>
+      <c r="CD15" s="19">
         <f>573230/1000</f>
         <v>573.23</v>
       </c>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="19"/>
-      <c r="BY15" s="19">
+      <c r="CE15" s="19"/>
+      <c r="CF15" s="19"/>
+      <c r="CG15" s="19">
         <f>(1826699+565516)/1000</f>
         <v>2392.2150000000001</v>
       </c>
-      <c r="BZ15" s="19"/>
-      <c r="CA15" s="19"/>
-      <c r="CB15" s="19">
+      <c r="CH15" s="19"/>
+      <c r="CI15" s="19"/>
+      <c r="CJ15" s="19">
         <f>818032/1000</f>
         <v>818.03200000000004</v>
       </c>
-      <c r="CC15" s="19"/>
-      <c r="CD15" s="19"/>
-      <c r="CE15" s="19">
+      <c r="CK15" s="19"/>
+      <c r="CL15" s="19"/>
+      <c r="CM15" s="19">
         <f>229533/1000</f>
         <v>229.53299999999999</v>
       </c>
-      <c r="CF15" s="19"/>
-      <c r="CG15" s="19"/>
-      <c r="CH15" s="19">
+      <c r="CN15" s="19"/>
+      <c r="CO15" s="19"/>
+      <c r="CP15" s="19">
         <v>0</v>
       </c>
-      <c r="CI15" s="19"/>
-      <c r="CJ15" s="19"/>
-      <c r="CK15" s="19"/>
-      <c r="CL15" s="19"/>
-      <c r="CM15" s="19"/>
-      <c r="CN15" s="19">
+      <c r="CQ15" s="19"/>
+      <c r="CR15" s="19"/>
+      <c r="CS15" s="19"/>
+      <c r="CT15" s="19"/>
+      <c r="CU15" s="19"/>
+      <c r="CV15" s="19">
         <v>0</v>
       </c>
-      <c r="CO15" s="19"/>
-      <c r="CP15" s="19"/>
-      <c r="CQ15" s="19">
+      <c r="CW15" s="19"/>
+      <c r="CX15" s="19"/>
+      <c r="CY15" s="19">
         <f>55557/1000</f>
         <v>55.557000000000002</v>
       </c>
-      <c r="CR15" s="19"/>
-      <c r="CS15" s="19"/>
-      <c r="CT15" s="19">
+      <c r="CZ15" s="19"/>
+      <c r="DA15" s="19"/>
+      <c r="DB15" s="19">
         <f>47502/1000</f>
         <v>47.502000000000002</v>
       </c>
-      <c r="CU15" s="19"/>
-      <c r="CV15" s="19"/>
-      <c r="CW15" s="19">
+      <c r="DC15" s="19"/>
+      <c r="DD15" s="19"/>
+      <c r="DE15" s="19">
         <f>(-8212260-928790)/1000</f>
         <v>-9141.0499999999993</v>
       </c>
-      <c r="CX15" s="19"/>
-      <c r="CY15" s="19"/>
-      <c r="CZ15" s="19">
+      <c r="DF15" s="19"/>
+      <c r="DG15" s="19"/>
+      <c r="DH15" s="19">
         <f>-2815765/1000</f>
         <v>-2815.7649999999999</v>
       </c>
-      <c r="DA15" s="19"/>
-      <c r="DB15" s="19"/>
-      <c r="DC15" s="19">
+      <c r="DI15" s="19"/>
+      <c r="DJ15" s="19"/>
+      <c r="DK15" s="19">
         <f>-801916/1000</f>
         <v>-801.91600000000005</v>
       </c>
-      <c r="DD15" s="19"/>
-      <c r="DE15" s="19"/>
-      <c r="DF15" s="19"/>
-      <c r="DG15" s="19"/>
-      <c r="DH15" s="19"/>
-      <c r="DI15" s="19"/>
-      <c r="DJ15" s="19"/>
-      <c r="DK15" s="19"/>
       <c r="DL15" s="19"/>
       <c r="DM15" s="19"/>
       <c r="DN15" s="19"/>
-      <c r="DO15" s="19">
+      <c r="DO15" s="19"/>
+      <c r="DP15" s="19"/>
+      <c r="DQ15" s="19"/>
+      <c r="DR15" s="19"/>
+      <c r="DS15" s="19"/>
+      <c r="DT15" s="19"/>
+      <c r="DU15" s="19"/>
+      <c r="DV15" s="19"/>
+      <c r="DW15" s="19">
         <f>-58476/1000</f>
         <v>-58.475999999999999</v>
       </c>
-      <c r="DP15" s="19"/>
-      <c r="DQ15" s="19"/>
-      <c r="DR15" s="19">
+      <c r="DX15" s="19"/>
+      <c r="DY15" s="19"/>
+      <c r="DZ15" s="19">
         <f>-221044/1000</f>
         <v>-221.04400000000001</v>
       </c>
-      <c r="DS15" s="19"/>
-      <c r="DT15" s="19"/>
-      <c r="DU15" s="19">
+      <c r="EA15" s="19"/>
+      <c r="EB15" s="19"/>
+      <c r="EC15" s="19">
         <f>3968290/1000</f>
         <v>3968.29</v>
       </c>
-      <c r="DV15" s="19"/>
-      <c r="DW15" s="19"/>
-      <c r="DX15" s="19">
+      <c r="ED15" s="19"/>
+      <c r="EE15" s="19"/>
+      <c r="EF15" s="19">
         <f>2215958/1000</f>
         <v>2215.9580000000001</v>
       </c>
-      <c r="DY15" s="19"/>
-      <c r="DZ15" s="19"/>
-      <c r="EA15" s="19">
+      <c r="EG15" s="19"/>
+      <c r="EH15" s="19"/>
+      <c r="EI15" s="19">
         <f>113104/1000</f>
         <v>113.104</v>
       </c>
-      <c r="EB15" s="19"/>
-      <c r="EC15" s="19"/>
-      <c r="ED15" s="19"/>
-      <c r="EE15" s="19"/>
-      <c r="EF15" s="19"/>
-      <c r="EG15" s="19">
-        <f>1810/1000</f>
-        <v>1.81</v>
-      </c>
-      <c r="EH15" s="19"/>
-      <c r="EI15" s="19"/>
       <c r="EJ15" s="19"/>
       <c r="EK15" s="19"/>
       <c r="EL15" s="19"/>
-      <c r="EM15" s="19">
+      <c r="EM15" s="19"/>
+      <c r="EN15" s="19"/>
+      <c r="EO15" s="19">
+        <f>1810/1000</f>
+        <v>1.81</v>
+      </c>
+      <c r="EP15" s="19"/>
+      <c r="EQ15" s="19"/>
+      <c r="ER15" s="19"/>
+      <c r="ES15" s="19"/>
+      <c r="ET15" s="19"/>
+      <c r="EU15" s="19">
         <f>457842/1000</f>
         <v>457.84199999999998</v>
       </c>
-      <c r="EN15" s="19"/>
-      <c r="EO15" s="19"/>
-      <c r="EP15" s="19">
+      <c r="EV15" s="19"/>
+      <c r="EW15" s="19"/>
+      <c r="EX15" s="19">
         <f>1887732/1000</f>
         <v>1887.732</v>
       </c>
-      <c r="EQ15" s="19"/>
-      <c r="ER15" s="19"/>
-      <c r="ES15" s="19">
+      <c r="EY15" s="19"/>
+      <c r="EZ15" s="19"/>
+      <c r="FA15" s="19">
         <f>27983/1000</f>
         <v>27.983000000000001</v>
       </c>
-      <c r="ET15" s="19"/>
+      <c r="FB15" s="19"/>
     </row>
-    <row r="16" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -4174,10 +4451,18 @@
       <c r="AZ16" s="14"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="24"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
     </row>
-    <row r="17" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -4374,10 +4659,18 @@
         <f>1/5*100</f>
         <v>20</v>
       </c>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24"/>
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="14"/>
     </row>
-    <row r="18" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -4547,10 +4840,38 @@
       <c r="AZ18" s="14"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
+      <c r="BC18" s="24">
+        <v>65699412</v>
+      </c>
+      <c r="BD18" s="24">
+        <v>1335922.0765555417</v>
+      </c>
+      <c r="BE18" s="24">
+        <v>55136889.371934704</v>
+      </c>
+      <c r="BF18" s="24">
+        <v>12142592.704620846</v>
+      </c>
+      <c r="BG18" s="25">
+        <f>BC18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2450.5880675999997</v>
+      </c>
+      <c r="BH18" s="25">
+        <f>BD18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>49.829893455521713</v>
+      </c>
+      <c r="BI18" s="25">
+        <f>BE18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2056.6059735731646</v>
+      </c>
+      <c r="BJ18" s="25">
+        <f>BF18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>452.91870788235752</v>
+      </c>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
     </row>
-    <row r="19" spans="1:150" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:158" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -4563,11 +4884,11 @@
         <v>0.18933333333333335</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" ref="D19" si="29">AVERAGE(D2:D18)</f>
+        <f>AVERAGE(D2:D18)</f>
         <v>68.092420147533332</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" ref="E19:AZ19" si="30">AVERAGE(E2:E18)</f>
+        <f t="shared" ref="E19:AZ19" si="29">AVERAGE(E2:E18)</f>
         <v>64.374399999999994</v>
       </c>
       <c r="F19" s="11">
@@ -4575,43 +4896,43 @@
         <v>3.7180201475333332</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.27175922899999999</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>36.399482528333337</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>13.3536975952</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>13.709595275933333</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>53.662396394443569</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>20.121101125914585</v>
       </c>
       <c r="M19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>19.417674250216255</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" ref="N19" si="31">AVERAGE(N2:N18)</f>
+        <f t="shared" ref="N19" si="30">AVERAGE(N2:N18)</f>
         <v>39.538775376130843</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5.4547291541230232</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.309411764705878</v>
       </c>
       <c r="Q19" s="11">
@@ -4619,47 +4940,47 @@
         <v>4.7164705882352953</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" ref="R19:AD19" si="32">AVERAGE(R2:R18)</f>
+        <f t="shared" ref="R19:AD19" si="31">AVERAGE(R2:R18)</f>
         <v>1.7823529411764707</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>8.2447058823529407</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.6470588235294117</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>3.1602235294117644</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.23170588235294121</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.0718117647058825</v>
       </c>
       <c r="Y19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.34411764705882358</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>27.469635294117648</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2.0140588235294121</v>
       </c>
       <c r="AB19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>9.3165176470588218</v>
       </c>
       <c r="AC19" s="11">
@@ -4667,23 +4988,23 @@
         <v>2.9911764705882353</v>
       </c>
       <c r="AD19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>46.507858823529403</v>
       </c>
       <c r="AE19" s="17">
-        <f t="shared" ref="AE19" si="33">AVERAGE(AE2:AE18)</f>
+        <f t="shared" ref="AE19" si="32">AVERAGE(AE2:AE18)</f>
         <v>6.8979596866944624</v>
       </c>
       <c r="AF19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>12.154705882352939</v>
       </c>
       <c r="AG19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.3582352941176477</v>
       </c>
       <c r="AH19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.89117647058823535</v>
       </c>
       <c r="AI19" s="11">
@@ -4691,23 +5012,23 @@
         <v>4.1223529411764703</v>
       </c>
       <c r="AJ19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1.3235294117647058</v>
       </c>
       <c r="AK19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>20.849999999999994</v>
       </c>
       <c r="AL19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.0905484078571428</v>
       </c>
       <c r="AM19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.6469714757142857</v>
       </c>
       <c r="AN19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.8892456778571431</v>
       </c>
       <c r="AO19" s="11">
@@ -4715,58 +5036,90 @@
         <v>5.7780667834392849</v>
       </c>
       <c r="AP19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>342.30730390915801</v>
       </c>
       <c r="AQ19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>356.45503397150969</v>
       </c>
       <c r="AR19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>17.055685764521638</v>
       </c>
       <c r="AS19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5.0514232427164805</v>
       </c>
       <c r="AT19" s="17">
-        <f t="shared" ref="AT19" si="34">AVERAGE(AT2:AT18)</f>
+        <f t="shared" ref="AT19" si="33">AVERAGE(AT2:AT18)</f>
         <v>82.740000000000009</v>
       </c>
       <c r="AU19" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>46.76443670774912</v>
       </c>
       <c r="AV19" s="17">
-        <f t="shared" ref="AV19:AW19" si="35">AVERAGE(AV2:AV18)</f>
+        <f t="shared" ref="AV19:AW19" si="34">AVERAGE(AV2:AV18)</f>
         <v>35.992658125609722</v>
       </c>
       <c r="AW19" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>8.1706259547468267</v>
       </c>
       <c r="AX19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>46.5</v>
       </c>
       <c r="AY19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>35.6</v>
       </c>
       <c r="AZ19" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="BA19" s="16"/>
       <c r="BB19" s="16"/>
-      <c r="BC19" s="16"/>
-      <c r="BD19" s="16"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
+      <c r="BC19" s="26">
+        <f t="shared" ref="BC19:BJ19" si="35">AVERAGE(BC2:BC18)</f>
+        <v>62276490.149999999</v>
+      </c>
+      <c r="BD19" s="26">
+        <f t="shared" si="35"/>
+        <v>2236143.6365082702</v>
+      </c>
+      <c r="BE19" s="26">
+        <f t="shared" si="35"/>
+        <v>52726324.132356286</v>
+      </c>
+      <c r="BF19" s="26">
+        <f t="shared" si="35"/>
+        <v>12131997.554151986</v>
+      </c>
+      <c r="BG19" s="27">
+        <f t="shared" si="35"/>
+        <v>2322.9130825949997</v>
+      </c>
+      <c r="BH19" s="27">
+        <f t="shared" si="35"/>
+        <v>83.408157641758464</v>
+      </c>
+      <c r="BI19" s="27">
+        <f t="shared" si="35"/>
+        <v>1966.6918901368899</v>
+      </c>
+      <c r="BJ19" s="27">
+        <f t="shared" si="35"/>
+        <v>452.52350876986907</v>
+      </c>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
     </row>
-    <row r="20" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -4929,30 +5282,22 @@
       <c r="BB20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BC20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BI20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ20" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="BC20" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="BF20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
       <c r="BK20" s="14" t="s">
         <v>163</v>
       </c>
@@ -5217,8 +5562,32 @@
       <c r="ET20" s="14" t="s">
         <v>163</v>
       </c>
+      <c r="EU20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EW20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EX20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EY20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FA20" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FB20" s="14" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="21" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:158" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5244,23 +5613,39 @@
       <c r="BB21" s="14"/>
       <c r="BC21" s="14"/>
       <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
     </row>
-    <row r="22" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:158" x14ac:dyDescent="0.3">
       <c r="AR22" s="14"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
       <c r="AV22" s="15"/>
       <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
+      <c r="AX22" s="21"/>
+      <c r="AY22" s="21"/>
+      <c r="AZ22" s="21"/>
+      <c r="BA22" s="21"/>
+      <c r="BB22" s="21"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
     </row>
-    <row r="23" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:158" x14ac:dyDescent="0.3">
       <c r="AR23" s="14"/>
       <c r="AS23" s="14"/>
       <c r="AT23" s="14"/>
@@ -5274,8 +5659,16 @@
       <c r="BB23" s="14"/>
       <c r="BC23" s="14"/>
       <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
     </row>
-    <row r="24" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:158" x14ac:dyDescent="0.3">
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
@@ -5289,9 +5682,22 @@
       <c r="BB24" s="14"/>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="BC20" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
+    <hyperlink ref="BF20" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
+    <hyperlink ref="BE20" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>